--- a/biology/Médecine/Félix_Balzer/Félix_Balzer.xlsx
+++ b/biology/Médecine/Félix_Balzer/Félix_Balzer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Balzer</t>
+          <t>Félix_Balzer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Félix Balzer (1849-1929) est un éminent dermatologue français[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Félix Balzer (1849-1929) est un éminent dermatologue français,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Balzer</t>
+          <t>Félix_Balzer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Descendant d'une famille bretonne originaire du canton de Glaris en Suisse, Félix Blazer commence ses études médicales à Rennes puis les poursuit à Paris, peu avant la guerre franco-allemande de 1870. Il fait ensuite son internat puis travaille au laboratoire d'Anatomie pathologique de Jean-Martin Charcot avec Albert Gombault, son ami pour y préparer sa thèse qu'il passera en 1878[1].
-En 1877, il devient le directeur du laboratoire, succédant à Grancher, et y fait des cours entre 1877 et 1879. Il obtient ensuite le poste de médecin de l'ambassade de France à Madrid, avant de revenir rapidement à Paris pour y poursuivre ses recherches[1].
-En 1880, il est nommé par Jean-Alfred Fournier chef du laboratoire d'histologie de la faculté à l'hôpital Saint-Louis. Après cinq année à ce poste, il devient chef de service titulaire à l'hôpital de Lourcine puis à l'hôpital Ricord jusqu'en 1896[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descendant d'une famille bretonne originaire du canton de Glaris en Suisse, Félix Blazer commence ses études médicales à Rennes puis les poursuit à Paris, peu avant la guerre franco-allemande de 1870. Il fait ensuite son internat puis travaille au laboratoire d'Anatomie pathologique de Jean-Martin Charcot avec Albert Gombault, son ami pour y préparer sa thèse qu'il passera en 1878.
+En 1877, il devient le directeur du laboratoire, succédant à Grancher, et y fait des cours entre 1877 et 1879. Il obtient ensuite le poste de médecin de l'ambassade de France à Madrid, avant de revenir rapidement à Paris pour y poursuivre ses recherches.
+En 1880, il est nommé par Jean-Alfred Fournier chef du laboratoire d'histologie de la faculté à l'hôpital Saint-Louis. Après cinq année à ce poste, il devient chef de service titulaire à l'hôpital de Lourcine puis à l'hôpital Ricord jusqu'en 1896.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Balzer</t>
+          <t>Félix_Balzer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,15 +558,17 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a publié :
-en 1878 : Broncho-pneumonie simulant la pneumonie franche avec convulsions chroniques et contractures[2].
-en 1881 : Recherches histologiques sur le favus et la tricophytie[2].
-en 1883 : Syphilides[2].
-en 1894 : Traité de thérapeutique des maladies vénériennes[1],[2].
-en 1909 : Maladies vénériennes[2].
-en 1912 : Blennoragie [2].</t>
+en 1878 : Broncho-pneumonie simulant la pneumonie franche avec convulsions chroniques et contractures.
+en 1881 : Recherches histologiques sur le favus et la tricophytie.
+en 1883 : Syphilides.
+en 1894 : Traité de thérapeutique des maladies vénériennes,.
+en 1909 : Maladies vénériennes.
+en 1912 : Blennoragie .</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Balzer</t>
+          <t>Félix_Balzer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Récompenses et sociétés savantes[1]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Membre en 1908 puis vice-président en 1927 de l'Académie de médecine.
 Président de la Société Médicale des Hôpitaux.
